--- a/CDTestCase.xlsx
+++ b/CDTestCase.xlsx
@@ -342,13 +342,48 @@
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">仿真测试!$A$2:$AG$94</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">HB!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">FC!$A$46:$R$133</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">FC组合测试!$A$1:$O$54</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">同步性!$A$2:$S$89</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
   <si>
     <t>NO.</t>
   </si>
@@ -1938,7 +1973,7 @@
     <t>车载终端盒子ID</t>
   </si>
   <si>
-    <t>34304B515336565A</t>
+    <t>21113901LJAC00TB1831302JAC</t>
   </si>
   <si>
     <t>Telematics_Box_Hardware_Variant</t>
@@ -1947,7 +1982,7 @@
     <t>车载终端盒硬件识别</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>7913919U3402_00</t>
   </si>
   <si>
     <t>Telematics_Box_Software_Version</t>
@@ -1962,7 +1997,7 @@
     <t>TSP唯一的信息ID (不是授权钥匙，每条信息都不一样，没有特定的规则，TSP可以自定义)</t>
   </si>
   <si>
-    <t>821694100108476416</t>
+    <t>9aadf56b-6b4c-4c43-99ec-7ec1b28c42f6</t>
   </si>
   <si>
     <t>Telematics_Partner_Name</t>
@@ -1971,7 +2006,7 @@
     <t>TSP名字</t>
   </si>
   <si>
-    <t>DFAC</t>
+    <t>JAC</t>
   </si>
   <si>
     <t>Customer_Reference</t>
@@ -1980,22 +2015,16 @@
     <t>客户名称（参考用）</t>
   </si>
   <si>
-    <t>Customer-DFAC</t>
-  </si>
-  <si>
     <t>Equipment_ID</t>
   </si>
   <si>
     <t>设备ID（客户设备的ID/名称/车牌）</t>
   </si>
   <si>
-    <t>???A.DFAC</t>
-  </si>
-  <si>
-    <t>82058157</t>
-  </si>
-  <si>
-    <t>LGDXWB1V0LH127422</t>
+    <t>84094232</t>
+  </si>
+  <si>
+    <t>JACTEST0000000001*</t>
   </si>
   <si>
     <t>Occurrence_Date_Time</t>
@@ -2005,7 +2034,7 @@
 简单的格式：天-月-年 时：分：秒 或 满足ISO 8601标准 （推荐的）</t>
   </si>
   <si>
-    <t>2021-03-17T02:38:57.000Z</t>
+    <t>2021-01-29T01:46:27.000Z</t>
   </si>
   <si>
     <t>Sent_Date_Time</t>
@@ -2015,7 +2044,7 @@
 简单的格式：天-月-年 时：分：秒 或 满足ISO 8601标准 （推荐的）</t>
   </si>
   <si>
-    <t>2021-03-17T02:38:59.804Z</t>
+    <t>2021-01-29T01:46:28.087Z</t>
   </si>
   <si>
     <t>Active</t>
@@ -2064,7 +2093,7 @@
    ]</t>
   </si>
   <si>
-    <t>[{'SPN': '251', 'FMI': '9', 'Occurrence_Count': '1', 'Fault_Source_Address': '0'}]</t>
+    <t>[{'FMI': '8', 'Fault_Source_Address': '0', 'Occurrence_Count': '2', 'SPN': '65535'}]</t>
   </si>
   <si>
     <t>SPN 故障模式识别</t>
@@ -2085,16 +2114,13 @@
     <t>事件发生时基于WGS 84标准的维度</t>
   </si>
   <si>
-    <t>32.12623</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Longitude</t>
   </si>
   <si>
     <t>事件发生时基于WGS 84标准的经度</t>
-  </si>
-  <si>
-    <t>112.173877</t>
   </si>
   <si>
     <t>Altitude</t>
@@ -2116,7 +2142,7 @@
 简单的格式：天-月-年 时：分：秒 或 满足ISO 8601标准 （推荐的）</t>
   </si>
   <si>
-    <t>4353.625</t>
+    <t>0.000</t>
   </si>
   <si>
     <t>Location_Text_Description</t>
@@ -2125,9 +2151,6 @@
     <t>位置的文字描述</t>
   </si>
   <si>
-    <t>????????? ????????? ?????????</t>
-  </si>
-  <si>
     <t>GPS</t>
   </si>
   <si>
@@ -2137,7 +2160,7 @@
     <t>Vehicle speed as measured by GPS/ GPS测量的车速</t>
   </si>
   <si>
-    <t>12</t>
+    <t>0.00000</t>
   </si>
   <si>
     <t>Tbox的 3轴或6轴电子罗盘</t>
@@ -2164,36 +2187,24 @@
     <t>油箱液位</t>
   </si>
   <si>
-    <t>17.2</t>
-  </si>
-  <si>
     <t>Vehicle_Model</t>
   </si>
   <si>
     <t>车型。传输车辆的制造商、车型、功率（马力）、底盘和驱动信息，用‘|‘分隔，例如‘福田|超能GTL|380|S6|6X2’。</t>
   </si>
   <si>
-    <t xml:space="preserve">6B NS6D062       </t>
-  </si>
-  <si>
     <t>Gross_Vehicle_Weight</t>
   </si>
   <si>
     <t>整车满载质量</t>
   </si>
   <si>
-    <t>16000</t>
-  </si>
-  <si>
     <t>Rear Axle Ratio</t>
   </si>
   <si>
     <t>车辆后桥速比</t>
   </si>
   <si>
-    <t>3.909</t>
-  </si>
-  <si>
     <t>Transmission Model</t>
   </si>
   <si>
@@ -2218,7 +2229,7 @@
     <t>该设备的应用(数组形式)</t>
   </si>
   <si>
-    <t>[{'value': 'Hubei'}]</t>
+    <t>[{'value': ''}]</t>
   </si>
   <si>
     <t>value</t>
@@ -2227,34 +2238,22 @@
     <t>设备应用的值(车队属地)</t>
   </si>
   <si>
-    <t>1059319775</t>
-  </si>
-  <si>
-    <t>SC95491</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>853.875</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>151.85</t>
-  </si>
-  <si>
-    <t>3012.8</t>
+    <t>2395467743</t>
+  </si>
+  <si>
+    <t>SC94293</t>
+  </si>
+  <si>
+    <t>29.2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>3012.80</t>
   </si>
   <si>
     <t>15</t>
@@ -2263,121 +2262,70 @@
     <t>6553.5</t>
   </si>
   <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>90.4</t>
-  </si>
-  <si>
-    <t>157.375</t>
-  </si>
-  <si>
-    <t>63.375</t>
-  </si>
-  <si>
-    <t>126.09375</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>1766.96875</t>
   </si>
   <si>
     <t>32636</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>308286</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>4294967295</t>
   </si>
   <si>
-    <t>33.75</t>
-  </si>
-  <si>
-    <t>78.375</t>
-  </si>
-  <si>
-    <t>122.09375</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>249.85</t>
+    <t>1774.96875</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>463.75</t>
   </si>
   <si>
     <t>8191.875</t>
   </si>
   <si>
-    <t>4353615</t>
-  </si>
-  <si>
-    <t>04354597*01031963*090920173700*90502057*ND*BKF*</t>
-  </si>
-  <si>
-    <t>23.15</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>04354597*01009583*090920173700*90502057*ND*BKD*</t>
   </si>
   <si>
     <t>126</t>
   </si>
   <si>
-    <t>1275</t>
-  </si>
-  <si>
-    <t>90.85</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>743.5</t>
+    <t>1125</t>
   </si>
   <si>
     <t>CMMNS</t>
   </si>
   <si>
+    <t xml:space="preserve">6D NS6D067       </t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>-40.00000</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
-    <t>1774.96875</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>26.46875</t>
-  </si>
-  <si>
-    <t>100.5</t>
-  </si>
-  <si>
-    <t>15.4375</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>27.65</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>23.85</t>
   </si>
   <si>
     <t>FC 头信息验证</t>
@@ -3560,16 +3508,16 @@
   </borders>
   <cellStyleXfs count="11">
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="217">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -4741,7 +4689,7 @@
         <v>118</v>
       </c>
       <c r="G1" s="201" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="H1" s="201" t="s">
         <v>33</v>
@@ -5046,10 +4994,10 @@
         <v>503</v>
       </c>
       <c r="B11" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>529</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>530</v>
       </c>
       <c r="D11" s="62" t="n"/>
       <c r="E11" s="62" t="n"/>
@@ -5168,10 +5116,10 @@
         <v>503</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D14" s="62" t="n"/>
       <c r="E14" s="62" t="n"/>
@@ -5198,10 +5146,10 @@
         <v>503</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D15" s="62" t="n"/>
       <c r="E15" s="62" t="n"/>
@@ -5228,10 +5176,10 @@
         <v>120</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D16" s="62" t="n"/>
       <c r="E16" s="62" t="n"/>
@@ -5256,10 +5204,10 @@
         <v>511</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D17" s="62" t="n"/>
       <c r="E17" s="62" t="n"/>
@@ -5284,10 +5232,10 @@
         <v>511</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D18" s="62" t="n"/>
       <c r="E18" s="62" t="n"/>
@@ -5314,10 +5262,10 @@
         <v>120</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D19" s="62" t="n"/>
       <c r="E19" s="62" t="n"/>
@@ -5342,10 +5290,10 @@
         <v>120</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D20" s="62" t="n"/>
       <c r="E20" s="62" t="n"/>
@@ -5370,10 +5318,10 @@
         <v>120</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D21" s="62" t="n"/>
       <c r="E21" s="62" t="n"/>
@@ -5398,10 +5346,10 @@
         <v>503</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D22" s="62" t="n"/>
       <c r="E22" s="62" t="n"/>
@@ -5426,10 +5374,10 @@
         <v>120</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D23" s="67" t="n">
         <v>65226</v>
@@ -5456,10 +5404,10 @@
         <v>120</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D24" s="67" t="n">
         <v>65226</v>
@@ -5486,10 +5434,10 @@
         <v>120</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D25" s="67" t="n">
         <v>65226</v>
@@ -5516,10 +5464,10 @@
         <v>120</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D26" s="62" t="n"/>
       <c r="E26" s="62" t="n"/>
@@ -5541,13 +5489,13 @@
     </row>
     <row customHeight="1" ht="29" r="27" spans="1:18">
       <c r="A27" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>556</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>557</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>558</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>559</v>
       </c>
       <c r="D27" s="62" t="n"/>
       <c r="E27" s="62" t="n"/>
@@ -5571,13 +5519,13 @@
     </row>
     <row customHeight="1" ht="29" r="28" spans="1:18">
       <c r="A28" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D28" s="62" t="n"/>
       <c r="E28" s="62" t="n"/>
@@ -5601,13 +5549,13 @@
     </row>
     <row customHeight="1" ht="15" r="29" spans="1:18">
       <c r="A29" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D29" s="62" t="n"/>
       <c r="E29" s="62" t="n"/>
@@ -5631,13 +5579,13 @@
     </row>
     <row customHeight="1" ht="29" r="30" spans="1:18">
       <c r="A30" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D30" s="62" t="n"/>
       <c r="E30" s="62" t="n"/>
@@ -5664,10 +5612,10 @@
         <v>503</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D31" s="62" t="n"/>
       <c r="E31" s="62" t="n"/>
@@ -5740,10 +5688,10 @@
         <v>503</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D33" s="62" t="n"/>
       <c r="E33" s="62" t="n"/>
@@ -5767,13 +5715,13 @@
     </row>
     <row customHeight="1" ht="29" r="34" spans="1:18">
       <c r="A34" s="62" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D34" s="62" t="n"/>
       <c r="E34" s="62" t="n"/>
@@ -5797,13 +5745,13 @@
     </row>
     <row customHeight="1" ht="15" r="35" spans="1:18">
       <c r="A35" s="64" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D35" s="62" t="n"/>
       <c r="E35" s="62" t="n"/>
@@ -5827,13 +5775,13 @@
     </row>
     <row customHeight="1" ht="15" r="36" spans="1:18">
       <c r="A36" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>578</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>581</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>582</v>
       </c>
       <c r="D36" s="62" t="n"/>
       <c r="E36" s="62" t="n"/>
@@ -5857,13 +5805,13 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="64" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D37" s="62" t="n"/>
       <c r="E37" s="62" t="n"/>
@@ -5890,10 +5838,10 @@
         <v>503</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D38" s="62" t="n"/>
       <c r="E38" s="62" t="n"/>
@@ -5920,10 +5868,10 @@
         <v>503</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D39" s="62" t="n"/>
       <c r="E39" s="62" t="n"/>
@@ -5950,10 +5898,10 @@
         <v>503</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D40" s="62" t="n"/>
       <c r="E40" s="62" t="n"/>
@@ -5980,10 +5928,10 @@
         <v>503</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D41" s="62" t="n"/>
       <c r="E41" s="62" t="n"/>
@@ -6010,10 +5958,10 @@
         <v>503</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D42" s="62" t="n"/>
       <c r="E42" s="62" t="n"/>
@@ -6040,10 +5988,10 @@
         <v>503</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D43" s="62" t="n"/>
       <c r="E43" s="62" t="n"/>
@@ -6070,10 +6018,10 @@
         <v>503</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D44" s="62" t="n"/>
       <c r="E44" s="62" t="n"/>
@@ -6100,10 +6048,10 @@
         <v>503</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D45" s="62" t="n"/>
       <c r="E45" s="62" t="n"/>
@@ -10411,28 +10359,28 @@
   <sheetData>
     <row customHeight="1" ht="30" r="1" spans="1:15" thickBot="1" thickTop="1">
       <c r="A1" s="99" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="B1" s="99" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
       <c r="C1" s="99" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D1" s="99" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E1" s="99" t="s">
-        <v>681</v>
+        <v>652</v>
       </c>
       <c r="F1" s="99" t="s">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="G1" s="212" t="s">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="I1" s="212" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="M1" s="99" t="s">
         <v>33</v>
@@ -10445,13 +10393,13 @@
       <c r="A2" s="101" t="n"/>
       <c r="B2" s="212" t="n"/>
       <c r="G2" s="215" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
       <c r="H2" s="215" t="s">
-        <v>686</v>
+        <v>657</v>
       </c>
       <c r="I2" s="212" t="s">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="K2" s="212" t="s">
         <v>499</v>
@@ -10466,28 +10414,28 @@
       <c r="E3" s="102" t="n"/>
       <c r="F3" s="102" t="n"/>
       <c r="I3" s="99" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="K3" s="99" t="s">
-        <v>688</v>
+        <v>659</v>
       </c>
       <c r="L3" s="99" t="s">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="M3" s="156" t="n"/>
       <c r="N3" s="103" t="n"/>
     </row>
     <row customHeight="1" ht="14.5" r="4" spans="1:15" thickTop="1">
       <c r="A4" s="205" t="s">
-        <v>690</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="157" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B5" s="158" t="n">
         <v>418</v>
@@ -10513,13 +10461,13 @@
       <c r="K5" s="106" t="n"/>
       <c r="L5" s="106" t="n"/>
       <c r="M5" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N5" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="16" r="6" spans="1:15">
       <c r="A6" s="157" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B6" s="158" t="n">
         <v>585</v>
@@ -10545,14 +10493,14 @@
       <c r="K6" s="106" t="n"/>
       <c r="L6" s="106" t="n"/>
       <c r="M6" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N6" s="160" t="n"/>
       <c r="O6" s="161" t="n"/>
     </row>
     <row customHeight="1" ht="16" r="7" spans="1:15">
       <c r="A7" s="157" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="B7" s="158" t="n">
         <v>2555</v>
@@ -10578,14 +10526,14 @@
       <c r="K7" s="106" t="n"/>
       <c r="L7" s="106" t="n"/>
       <c r="M7" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N7" s="160" t="n"/>
       <c r="O7" s="161" t="n"/>
     </row>
     <row customHeight="1" ht="16" r="8" spans="1:15">
       <c r="A8" s="157" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="B8" s="158" t="n">
         <v>1239</v>
@@ -10611,20 +10559,20 @@
       <c r="K8" s="109" t="n"/>
       <c r="L8" s="109" t="n"/>
       <c r="M8" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N8" s="104" t="n"/>
       <c r="O8" s="161" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="9" spans="1:15">
       <c r="A9" s="205" t="s">
-        <v>696</v>
+        <v>667</v>
       </c>
       <c r="O9" s="162" t="n"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="157" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B10" s="158" t="n">
         <v>418</v>
@@ -10650,14 +10598,14 @@
       <c r="K10" s="106" t="n"/>
       <c r="L10" s="106" t="n"/>
       <c r="M10" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N10" s="160" t="n"/>
       <c r="O10" s="162" t="n"/>
     </row>
     <row customHeight="1" ht="16" r="11" spans="1:15">
       <c r="A11" s="157" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B11" s="158" t="n">
         <v>585</v>
@@ -10683,14 +10631,14 @@
       <c r="K11" s="106" t="n"/>
       <c r="L11" s="106" t="n"/>
       <c r="M11" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N11" s="160" t="n"/>
       <c r="O11" s="161" t="n"/>
     </row>
     <row customHeight="1" ht="16" r="12" spans="1:15">
       <c r="A12" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B12" s="158" t="n">
         <v>195</v>
@@ -10716,14 +10664,14 @@
       <c r="K12" s="106" t="n"/>
       <c r="L12" s="106" t="n"/>
       <c r="M12" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N12" s="160" t="n"/>
       <c r="O12" s="161" t="n"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="157" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="B13" s="158" t="n">
         <v>2377</v>
@@ -10749,18 +10697,18 @@
       <c r="K13" s="106" t="n"/>
       <c r="L13" s="106" t="n"/>
       <c r="M13" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N13" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="14" spans="1:15">
       <c r="A14" s="205" t="s">
-        <v>699</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="157" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B15" s="158" t="n">
         <v>418</v>
@@ -10790,7 +10738,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="157" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B16" s="158" t="n">
         <v>585</v>
@@ -10820,7 +10768,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B17" s="158" t="n">
         <v>195</v>
@@ -10850,7 +10798,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="157" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="B18" s="158" t="n">
         <v>2377</v>
@@ -10880,12 +10828,12 @@
     </row>
     <row customHeight="1" ht="13.9" r="19" spans="1:15">
       <c r="A19" s="205" t="s">
-        <v>700</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B20" s="158" t="n">
         <v>597</v>
@@ -10915,7 +10863,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B21" s="158" t="n">
         <v>597</v>
@@ -10945,7 +10893,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B22" s="158" t="n">
         <v>597</v>
@@ -10975,12 +10923,12 @@
     </row>
     <row customHeight="1" ht="13.9" r="23" spans="1:15">
       <c r="A23" s="205" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B24" s="158" t="n">
         <v>597</v>
@@ -11006,13 +10954,13 @@
       <c r="K24" s="106" t="n"/>
       <c r="L24" s="106" t="n"/>
       <c r="M24" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N24" s="160" t="n"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B25" s="158" t="n">
         <v>597</v>
@@ -11038,13 +10986,13 @@
       <c r="K25" s="106" t="n"/>
       <c r="L25" s="106" t="n"/>
       <c r="M25" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N25" s="160" t="n"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B26" s="158" t="n">
         <v>597</v>
@@ -11070,18 +11018,18 @@
       <c r="K26" s="106" t="n"/>
       <c r="L26" s="106" t="n"/>
       <c r="M26" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N26" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="27" spans="1:15">
       <c r="A27" s="205" t="s">
-        <v>703</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B28" s="158" t="n">
         <v>195</v>
@@ -11107,13 +11055,13 @@
       <c r="K28" s="106" t="n"/>
       <c r="L28" s="106" t="n"/>
       <c r="M28" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N28" s="160" t="n"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="155" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="B29" s="158" t="n">
         <v>196</v>
@@ -11139,18 +11087,18 @@
       <c r="K29" s="106" t="n"/>
       <c r="L29" s="106" t="n"/>
       <c r="M29" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N29" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="30" spans="1:15">
       <c r="A30" s="205" t="s">
-        <v>705</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B31" s="158" t="n">
         <v>195</v>
@@ -11176,13 +11124,13 @@
       <c r="K31" s="106" t="n"/>
       <c r="L31" s="106" t="n"/>
       <c r="M31" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N31" s="160" t="n"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="155" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="B32" s="158" t="n">
         <v>196</v>
@@ -11208,18 +11156,18 @@
       <c r="K32" s="106" t="n"/>
       <c r="L32" s="106" t="n"/>
       <c r="M32" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N32" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="33" spans="1:15">
       <c r="A33" s="205" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="157" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B34" s="158" t="n">
         <v>418</v>
@@ -11243,13 +11191,13 @@
       <c r="K34" s="112" t="n"/>
       <c r="L34" s="111" t="n"/>
       <c r="M34" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N34" s="160" t="n"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="157" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B35" s="158" t="n">
         <v>585</v>
@@ -11275,13 +11223,13 @@
       <c r="K35" s="112" t="n"/>
       <c r="L35" s="112" t="n"/>
       <c r="M35" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N35" s="160" t="n"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B36" s="158" t="n">
         <v>195</v>
@@ -11307,13 +11255,13 @@
       <c r="K36" s="112" t="n"/>
       <c r="L36" s="112" t="n"/>
       <c r="M36" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N36" s="160" t="n"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="157" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="B37" s="158" t="n">
         <v>2555</v>
@@ -11337,13 +11285,13 @@
       <c r="K37" s="106" t="n"/>
       <c r="L37" s="107" t="n"/>
       <c r="M37" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N37" s="160" t="n"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="157" t="s">
-        <v>698</v>
+        <v>669</v>
       </c>
       <c r="B38" s="158" t="n">
         <v>2377</v>
@@ -11369,13 +11317,13 @@
       <c r="K38" s="112" t="n"/>
       <c r="L38" s="112" t="n"/>
       <c r="M38" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N38" s="160" t="n"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="157" t="s">
-        <v>701</v>
+        <v>672</v>
       </c>
       <c r="B39" s="158" t="n">
         <v>597</v>
@@ -11399,13 +11347,13 @@
       <c r="K39" s="106" t="n"/>
       <c r="L39" s="107" t="n"/>
       <c r="M39" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N39" s="160" t="n"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="157" t="s">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="B40" s="164" t="n">
         <v>415</v>
@@ -11431,13 +11379,13 @@
       <c r="K40" s="106" t="n"/>
       <c r="L40" s="112" t="n"/>
       <c r="M40" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N40" s="160" t="n"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="157" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="B41" s="158" t="n">
         <v>4488</v>
@@ -11461,13 +11409,13 @@
       <c r="K41" s="112" t="n"/>
       <c r="L41" s="111" t="n"/>
       <c r="M41" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N41" s="160" t="n"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="155" t="s">
-        <v>704</v>
+        <v>675</v>
       </c>
       <c r="B42" s="158" t="n">
         <v>196</v>
@@ -11493,13 +11441,13 @@
       <c r="K42" s="106" t="n"/>
       <c r="L42" s="112" t="n"/>
       <c r="M42" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N42" s="160" t="n"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="157" t="s">
-        <v>709</v>
+        <v>680</v>
       </c>
       <c r="B43" s="158" t="n">
         <v>234</v>
@@ -11523,18 +11471,18 @@
       <c r="K43" s="106" t="n"/>
       <c r="L43" s="107" t="n"/>
       <c r="M43" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N43" s="160" t="n"/>
     </row>
     <row customHeight="1" ht="13.9" r="44" spans="1:15">
       <c r="A44" s="205" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="157" t="s">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B45" s="158" t="n">
         <v>1242</v>
@@ -11560,13 +11508,13 @@
       <c r="K45" s="166" t="n"/>
       <c r="L45" s="166" t="n"/>
       <c r="M45" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
       <c r="N45" s="209" t="n"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="157" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="B46" s="158" t="n">
         <v>4488</v>
@@ -11592,12 +11540,12 @@
       <c r="K46" s="166" t="n"/>
       <c r="L46" s="166" t="n"/>
       <c r="M46" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="157" t="s">
-        <v>712</v>
+        <v>683</v>
       </c>
       <c r="B47" s="158" t="n">
         <v>4948</v>
@@ -11623,17 +11571,17 @@
       <c r="K47" s="166" t="n"/>
       <c r="L47" s="166" t="n"/>
       <c r="M47" s="108" t="s">
-        <v>692</v>
+        <v>663</v>
       </c>
     </row>
     <row customHeight="1" ht="13.9" r="48" spans="1:15">
       <c r="A48" s="205" t="s">
-        <v>713</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="157" t="s">
-        <v>691</v>
+        <v>662</v>
       </c>
       <c r="B49" s="158" t="n">
         <v>418</v>
@@ -11645,7 +11593,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="180" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="F49" s="104" t="n">
         <v>1</v>
@@ -11661,7 +11609,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="157" t="s">
-        <v>693</v>
+        <v>664</v>
       </c>
       <c r="B50" s="158" t="n">
         <v>585</v>
@@ -11673,7 +11621,7 @@
         <v>4</v>
       </c>
       <c r="E50" s="180" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="F50" s="104" t="n">
         <v>1</v>
@@ -11689,7 +11637,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="157" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="B51" s="158" t="n">
         <v>195</v>
@@ -11701,7 +11649,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="180" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
       <c r="F51" s="104" t="n">
         <v>1</v>
@@ -11717,7 +11665,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="157" t="s">
-        <v>711</v>
+        <v>682</v>
       </c>
       <c r="B52" s="158" t="n">
         <v>1242</v>
@@ -11745,7 +11693,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="157" t="s">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="B53" s="158" t="n">
         <v>4488</v>
@@ -11773,7 +11721,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="157" t="s">
-        <v>712</v>
+        <v>683</v>
       </c>
       <c r="B54" s="158" t="n">
         <v>4948</v>
@@ -11801,7 +11749,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="168" t="s">
-        <v>715</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -11894,16 +11842,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>716</v>
+        <v>687</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>717</v>
+        <v>688</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>718</v>
+        <v>689</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="F2" s="46" t="n"/>
       <c r="G2" s="46" t="n"/>
@@ -11978,13 +11926,13 @@
         <v>111</v>
       </c>
       <c r="H1" s="150" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="I1" s="150" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="J1" s="150" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="K1" s="151" t="s">
         <v>33</v>
@@ -16388,19 +16336,19 @@
   <sheetData>
     <row customHeight="1" ht="15.5" r="1" spans="1:7" thickBot="1" thickTop="1">
       <c r="A1" s="145" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="B1" s="146" t="s">
-        <v>724</v>
+        <v>695</v>
       </c>
       <c r="C1" s="146" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="D1" s="146" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="E1" s="146" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
       <c r="F1" s="146" t="s">
         <v>33</v>
@@ -16414,13 +16362,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
       <c r="D2" s="172" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="E2" s="124" t="n"/>
       <c r="F2" s="135" t="n"/>
@@ -16431,13 +16379,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="124" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="D3" s="142" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="E3" s="130" t="n"/>
       <c r="F3" s="135" t="n"/>
@@ -16448,13 +16396,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="C4" s="124" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="E4" s="128" t="n"/>
       <c r="F4" s="135" t="n"/>
@@ -16465,13 +16413,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="E5" s="128" t="n"/>
       <c r="F5" s="135" t="n"/>
@@ -16482,13 +16430,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="E6" s="124" t="n"/>
       <c r="F6" s="135" t="n"/>
@@ -16499,13 +16447,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="128" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
       <c r="E7" s="131" t="n"/>
       <c r="F7" s="135" t="n"/>
@@ -16516,13 +16464,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="128" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
       <c r="C8" s="130" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
       <c r="E8" s="132" t="n"/>
       <c r="F8" s="135" t="n"/>
@@ -16533,13 +16481,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="C9" s="130" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
       <c r="D9" s="142" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
       <c r="E9" s="136" t="n"/>
       <c r="F9" s="135" t="n"/>
@@ -16550,13 +16498,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="182" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="C10" s="182" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
       <c r="D10" s="183" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
       <c r="E10" s="136" t="n"/>
       <c r="F10" s="135" t="n"/>
@@ -16567,13 +16515,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
       <c r="C11" s="136" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="E11" s="136" t="n"/>
       <c r="F11" s="136" t="n"/>
@@ -23098,7 +23046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z134"/>
+  <dimension ref="A1:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85">
       <pane activePane="bottomRight" state="frozen" topLeftCell="E44" xSplit="3" ySplit="1"/>
@@ -23126,7 +23074,7 @@
     <col customWidth="1" max="16384" min="20" style="50" width="8.25"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="51" spans="1:26" thickTop="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="51" spans="1:18" thickTop="1">
       <c r="A1" s="93" t="s">
         <v>15</v>
       </c>
@@ -23145,9 +23093,7 @@
       <c r="F1" s="201" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="201" t="s">
-        <v>119</v>
-      </c>
+      <c r="G1" s="201" t="s"/>
       <c r="H1" s="201" t="s">
         <v>33</v>
       </c>
@@ -23181,9 +23127,8 @@
       <c r="R1" s="94" t="s">
         <v>500</v>
       </c>
-      <c r="Z1" t="s"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.5" r="2" s="51" spans="1:26">
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.5" r="2" s="51" spans="1:18">
       <c r="A2" s="52" t="n"/>
       <c r="B2" s="52" t="s">
         <v>501</v>
@@ -23194,7 +23139,7 @@
       <c r="D2" s="52" t="n"/>
       <c r="E2" s="52" t="n"/>
       <c r="F2" s="52" t="n"/>
-      <c r="G2" s="52" t="n"/>
+      <c r="G2" s="52" t="s"/>
       <c r="H2" s="52" t="n"/>
       <c r="I2" s="52" t="n"/>
       <c r="J2" s="52" t="n"/>
@@ -23206,9 +23151,8 @@
       <c r="P2" s="52" t="n"/>
       <c r="Q2" s="52" t="n"/>
       <c r="R2" s="52" t="n"/>
-      <c r="Z2" t="s"/>
-    </row>
-    <row customHeight="1" ht="44" r="3" spans="1:26">
+    </row>
+    <row customHeight="1" ht="44" r="3" spans="1:18">
       <c r="A3" s="62" t="s">
         <v>503</v>
       </c>
@@ -23239,9 +23183,8 @@
       <c r="R3" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="4" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="4" spans="1:18">
       <c r="A4" s="62" t="s">
         <v>503</v>
       </c>
@@ -23272,9 +23215,8 @@
       <c r="R4" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z4" t="s"/>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="62" t="s">
         <v>511</v>
       </c>
@@ -23305,9 +23247,8 @@
       <c r="R5" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z5" t="s"/>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="62" t="s">
         <v>511</v>
       </c>
@@ -23338,9 +23279,8 @@
       <c r="R6" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z6" t="s"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="62" t="s">
         <v>511</v>
       </c>
@@ -23371,9 +23311,8 @@
       <c r="R7" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z7" t="s"/>
-    </row>
-    <row customHeight="1" ht="58" r="8" spans="1:26">
+    </row>
+    <row customHeight="1" ht="58" r="8" spans="1:18">
       <c r="A8" s="62" t="s">
         <v>503</v>
       </c>
@@ -23404,9 +23343,8 @@
       <c r="R8" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z8" t="s"/>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="62" t="s">
         <v>503</v>
       </c>
@@ -23437,9 +23375,8 @@
       <c r="R9" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z9" t="s"/>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="62" t="s">
         <v>503</v>
       </c>
@@ -23453,7 +23390,7 @@
       <c r="E10" s="62" t="n"/>
       <c r="F10" s="62" t="n"/>
       <c r="G10" s="62" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H10" s="62" t="n"/>
       <c r="I10" s="62" t="n"/>
@@ -23470,24 +23407,21 @@
       <c r="R10" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z10" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="11" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="11" spans="1:18">
       <c r="A11" s="62" t="s">
         <v>503</v>
       </c>
       <c r="B11" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>529</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>530</v>
       </c>
       <c r="D11" s="62" t="n"/>
       <c r="E11" s="62" t="n"/>
       <c r="F11" s="62" t="n"/>
-      <c r="G11" s="62" t="s">
-        <v>531</v>
-      </c>
+      <c r="G11" s="62" t="s"/>
       <c r="H11" s="62" t="n"/>
       <c r="I11" s="62" t="n"/>
       <c r="J11" s="62" t="n"/>
@@ -23503,9 +23437,8 @@
       <c r="R11" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z11" t="s"/>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="62" t="s">
         <v>120</v>
       </c>
@@ -23523,7 +23456,7 @@
       </c>
       <c r="F12" s="62" t="n"/>
       <c r="G12" s="62" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H12" s="62" t="n"/>
       <c r="I12" s="62" t="n"/>
@@ -23552,9 +23485,8 @@
       <c r="R12" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z12" t="s"/>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="62" t="s">
         <v>120</v>
       </c>
@@ -23572,7 +23504,7 @@
       </c>
       <c r="F13" s="62" t="n"/>
       <c r="G13" s="62" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H13" s="62" t="n"/>
       <c r="I13" s="62" t="n"/>
@@ -23601,23 +23533,22 @@
       <c r="R13" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z13" t="s"/>
-    </row>
-    <row customHeight="1" ht="87" r="14" spans="1:26">
+    </row>
+    <row customHeight="1" ht="87" r="14" spans="1:18">
       <c r="A14" s="62" t="s">
         <v>503</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D14" s="62" t="n"/>
       <c r="E14" s="62" t="n"/>
       <c r="F14" s="62" t="n"/>
       <c r="G14" s="62" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H14" s="62" t="n"/>
       <c r="I14" s="62" t="n"/>
@@ -23634,23 +23565,22 @@
       <c r="R14" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z14" t="s"/>
-    </row>
-    <row customHeight="1" ht="72.5" r="15" spans="1:26">
+    </row>
+    <row customHeight="1" ht="72.5" r="15" spans="1:18">
       <c r="A15" s="62" t="s">
         <v>503</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D15" s="62" t="n"/>
       <c r="E15" s="62" t="n"/>
       <c r="F15" s="62" t="n"/>
       <c r="G15" s="62" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H15" s="62" t="n"/>
       <c r="I15" s="62" t="n"/>
@@ -23667,22 +23597,21 @@
       <c r="R15" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z15" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="16" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="16" spans="1:18">
       <c r="A16" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D16" s="62" t="n"/>
       <c r="E16" s="62" t="n"/>
       <c r="F16" s="62" t="n"/>
-      <c r="G16" s="62" t="n"/>
+      <c r="G16" s="62" t="s"/>
       <c r="H16" s="62" t="n"/>
       <c r="I16" s="62" t="n"/>
       <c r="J16" s="62" t="n"/>
@@ -23696,22 +23625,21 @@
         <v>507</v>
       </c>
       <c r="R16" s="62" t="n"/>
-      <c r="Z16" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="17" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="17" spans="1:18">
       <c r="A17" s="62" t="s">
         <v>511</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D17" s="62" t="n"/>
       <c r="E17" s="62" t="n"/>
       <c r="F17" s="62" t="n"/>
-      <c r="G17" s="62" t="n"/>
+      <c r="G17" s="62" t="s"/>
       <c r="H17" s="62" t="n"/>
       <c r="I17" s="62" t="n"/>
       <c r="J17" s="62" t="n"/>
@@ -23725,17 +23653,16 @@
         <v>507</v>
       </c>
       <c r="R17" s="62" t="n"/>
-      <c r="Z17" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="18" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="18" spans="1:18">
       <c r="A18" s="62" t="s">
         <v>511</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D18" s="62" t="n"/>
       <c r="E18" s="62" t="n"/>
@@ -23758,22 +23685,21 @@
       <c r="R18" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z18" t="s"/>
-    </row>
-    <row r="19" spans="1:26">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D19" s="62" t="n"/>
       <c r="E19" s="62" t="n"/>
       <c r="F19" s="62" t="n"/>
-      <c r="G19" s="62" t="n"/>
+      <c r="G19" s="62" t="s"/>
       <c r="H19" s="62" t="n"/>
       <c r="I19" s="62" t="n"/>
       <c r="J19" s="62" t="n"/>
@@ -23787,22 +23713,21 @@
         <v>507</v>
       </c>
       <c r="R19" s="62" t="n"/>
-      <c r="Z19" t="s"/>
-    </row>
-    <row r="20" spans="1:26">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D20" s="62" t="n"/>
       <c r="E20" s="62" t="n"/>
       <c r="F20" s="62" t="n"/>
-      <c r="G20" s="62" t="n"/>
+      <c r="G20" s="62" t="s"/>
       <c r="H20" s="62" t="n"/>
       <c r="I20" s="62" t="n"/>
       <c r="J20" s="62" t="n"/>
@@ -23816,22 +23741,21 @@
         <v>507</v>
       </c>
       <c r="R20" s="62" t="n"/>
-      <c r="Z20" t="s"/>
-    </row>
-    <row r="21" spans="1:26">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D21" s="62" t="n"/>
       <c r="E21" s="62" t="n"/>
       <c r="F21" s="62" t="n"/>
-      <c r="G21" s="62" t="n"/>
+      <c r="G21" s="62" t="s"/>
       <c r="H21" s="62" t="n"/>
       <c r="I21" s="62" t="n"/>
       <c r="J21" s="62" t="n"/>
@@ -23845,23 +23769,22 @@
         <v>507</v>
       </c>
       <c r="R21" s="62" t="n"/>
-      <c r="Z21" t="s"/>
-    </row>
-    <row customHeight="1" ht="174" r="22" spans="1:26">
+    </row>
+    <row customHeight="1" ht="174" r="22" spans="1:18">
       <c r="A22" s="62" t="s">
         <v>503</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D22" s="62" t="n"/>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="62" t="n"/>
       <c r="G22" s="62" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H22" s="62" t="n"/>
       <c r="I22" s="62" t="n"/>
@@ -23876,24 +23799,23 @@
       <c r="R22" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z22" t="s"/>
-    </row>
-    <row r="23" spans="1:26">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D23" s="67" t="n">
         <v>65226</v>
       </c>
       <c r="E23" s="62" t="n"/>
       <c r="F23" s="62" t="n"/>
-      <c r="G23" s="62" t="n"/>
+      <c r="G23" s="62" t="s"/>
       <c r="H23" s="62" t="n"/>
       <c r="I23" s="62" t="n"/>
       <c r="J23" s="62" t="n"/>
@@ -23907,24 +23829,23 @@
       <c r="R23" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z23" t="s"/>
-    </row>
-    <row r="24" spans="1:26">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D24" s="67" t="n">
         <v>65226</v>
       </c>
       <c r="E24" s="62" t="n"/>
       <c r="F24" s="62" t="n"/>
-      <c r="G24" s="62" t="n"/>
+      <c r="G24" s="62" t="s"/>
       <c r="H24" s="62" t="n"/>
       <c r="I24" s="62" t="n"/>
       <c r="J24" s="62" t="n"/>
@@ -23938,24 +23859,23 @@
       <c r="R24" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z24" t="s"/>
-    </row>
-    <row r="25" spans="1:26">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D25" s="67" t="n">
         <v>65226</v>
       </c>
       <c r="E25" s="62" t="n"/>
       <c r="F25" s="62" t="n"/>
-      <c r="G25" s="62" t="n"/>
+      <c r="G25" s="62" t="s"/>
       <c r="H25" s="62" t="n"/>
       <c r="I25" s="62" t="n"/>
       <c r="J25" s="62" t="n"/>
@@ -23969,22 +23889,21 @@
       <c r="R25" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z25" t="s"/>
-    </row>
-    <row r="26" spans="1:26">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="62" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C26" s="65" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D26" s="62" t="n"/>
       <c r="E26" s="62" t="n"/>
       <c r="F26" s="62" t="n"/>
-      <c r="G26" s="62" t="n"/>
+      <c r="G26" s="62" t="s"/>
       <c r="H26" s="62" t="n"/>
       <c r="I26" s="62" t="n"/>
       <c r="J26" s="62" t="n"/>
@@ -23998,23 +23917,22 @@
       <c r="R26" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z26" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="27" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="27" spans="1:18">
       <c r="A27" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>556</v>
+      </c>
+      <c r="C27" s="55" t="s">
         <v>557</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>558</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>559</v>
       </c>
       <c r="D27" s="62" t="n"/>
       <c r="E27" s="62" t="n"/>
       <c r="F27" s="62" t="n"/>
       <c r="G27" s="62" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H27" s="62" t="n"/>
       <c r="I27" s="62" t="n"/>
@@ -24031,23 +23949,22 @@
       <c r="R27" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z27" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="28" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="28" spans="1:18">
       <c r="A28" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D28" s="62" t="n"/>
       <c r="E28" s="62" t="n"/>
       <c r="F28" s="62" t="n"/>
       <c r="G28" s="62" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H28" s="62" t="n"/>
       <c r="I28" s="62" t="n"/>
@@ -24064,23 +23981,22 @@
       <c r="R28" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z28" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="29" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="29" spans="1:18">
       <c r="A29" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D29" s="62" t="n"/>
       <c r="E29" s="62" t="n"/>
       <c r="F29" s="62" t="n"/>
       <c r="G29" s="62" t="s">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="H29" s="62" t="n"/>
       <c r="I29" s="62" t="n"/>
@@ -24097,23 +24013,22 @@
       <c r="R29" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z29" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="30" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="30" spans="1:18">
       <c r="A30" s="63" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D30" s="62" t="n"/>
       <c r="E30" s="62" t="n"/>
       <c r="F30" s="62" t="n"/>
       <c r="G30" s="62" t="s">
-        <v>230</v>
+        <v>558</v>
       </c>
       <c r="H30" s="62" t="n"/>
       <c r="I30" s="62" t="n"/>
@@ -24130,23 +24045,22 @@
       <c r="R30" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z30" t="s"/>
-    </row>
-    <row customHeight="1" ht="72.5" r="31" spans="1:26">
+    </row>
+    <row customHeight="1" ht="72.5" r="31" spans="1:18">
       <c r="A31" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D31" s="62" t="n"/>
       <c r="E31" s="62" t="n"/>
       <c r="F31" s="62" t="n"/>
       <c r="G31" s="62" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H31" s="62" t="n"/>
       <c r="I31" s="62" t="n"/>
@@ -24163,9 +24077,8 @@
       <c r="R31" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z31" t="s"/>
-    </row>
-    <row r="32" spans="1:26">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="62" t="s">
         <v>120</v>
       </c>
@@ -24183,7 +24096,7 @@
       </c>
       <c r="F32" s="62" t="n"/>
       <c r="G32" s="62" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H32" s="62" t="n"/>
       <c r="I32" s="62" t="n"/>
@@ -24212,24 +24125,21 @@
       <c r="R32" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z32" t="s"/>
-    </row>
-    <row r="33" spans="1:26">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="62" t="s">
         <v>503</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D33" s="62" t="n"/>
       <c r="E33" s="62" t="n"/>
       <c r="F33" s="62" t="n"/>
-      <c r="G33" s="62" t="s">
-        <v>573</v>
-      </c>
+      <c r="G33" s="62" t="s"/>
       <c r="H33" s="62" t="n"/>
       <c r="I33" s="62" t="n"/>
       <c r="J33" s="62" t="n"/>
@@ -24245,23 +24155,22 @@
       <c r="R33" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z33" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="34" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="34" spans="1:18">
       <c r="A34" s="62" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D34" s="62" t="n"/>
       <c r="E34" s="62" t="n"/>
       <c r="F34" s="62" t="n"/>
       <c r="G34" s="62" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H34" s="62" t="n"/>
       <c r="I34" s="62" t="n"/>
@@ -24278,24 +24187,21 @@
       <c r="R34" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z34" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="35" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="35" spans="1:18">
       <c r="A35" s="64" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D35" s="62" t="n"/>
       <c r="E35" s="62" t="n"/>
       <c r="F35" s="62" t="n"/>
-      <c r="G35" s="62" t="s">
-        <v>149</v>
-      </c>
+      <c r="G35" s="62" t="s"/>
       <c r="H35" s="62" t="n"/>
       <c r="I35" s="62" t="n"/>
       <c r="J35" s="62" t="n"/>
@@ -24311,24 +24217,21 @@
       <c r="R35" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z35" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="36" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="36" spans="1:18">
       <c r="A36" s="64" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>578</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>581</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>582</v>
       </c>
       <c r="D36" s="62" t="n"/>
       <c r="E36" s="62" t="n"/>
       <c r="F36" s="62" t="n"/>
-      <c r="G36" s="62" t="s">
-        <v>149</v>
-      </c>
+      <c r="G36" s="62" t="s"/>
       <c r="H36" s="62" t="n"/>
       <c r="I36" s="62" t="n"/>
       <c r="J36" s="62" t="n"/>
@@ -24344,24 +24247,21 @@
       <c r="R36" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z36" t="s"/>
-    </row>
-    <row r="37" spans="1:26">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="64" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D37" s="62" t="n"/>
       <c r="E37" s="62" t="n"/>
       <c r="F37" s="62" t="n"/>
-      <c r="G37" s="62" t="s">
-        <v>586</v>
-      </c>
+      <c r="G37" s="62" t="s"/>
       <c r="H37" s="62" t="n"/>
       <c r="I37" s="62" t="n"/>
       <c r="J37" s="62" t="n"/>
@@ -24377,24 +24277,21 @@
       <c r="R37" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="Z37" t="s"/>
-    </row>
-    <row customHeight="1" ht="58" r="38" spans="1:26">
+    </row>
+    <row customHeight="1" ht="58" r="38" spans="1:18">
       <c r="A38" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D38" s="62" t="n"/>
       <c r="E38" s="62" t="n"/>
       <c r="F38" s="62" t="n"/>
-      <c r="G38" s="62" t="s">
-        <v>589</v>
-      </c>
+      <c r="G38" s="62" t="s"/>
       <c r="H38" s="62" t="n"/>
       <c r="I38" s="62" t="n"/>
       <c r="J38" s="62" t="n"/>
@@ -24410,24 +24307,21 @@
       <c r="R38" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z38" t="s"/>
-    </row>
-    <row r="39" spans="1:26">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D39" s="62" t="n"/>
       <c r="E39" s="62" t="n"/>
       <c r="F39" s="62" t="n"/>
-      <c r="G39" s="62" t="s">
-        <v>592</v>
-      </c>
+      <c r="G39" s="62" t="s"/>
       <c r="H39" s="62" t="n"/>
       <c r="I39" s="62" t="n"/>
       <c r="J39" s="62" t="n"/>
@@ -24443,24 +24337,21 @@
       <c r="R39" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z39" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="40" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="40" spans="1:18">
       <c r="A40" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D40" s="62" t="n"/>
       <c r="E40" s="62" t="n"/>
       <c r="F40" s="62" t="n"/>
-      <c r="G40" s="62" t="s">
-        <v>595</v>
-      </c>
+      <c r="G40" s="62" t="s"/>
       <c r="H40" s="62" t="n"/>
       <c r="I40" s="62" t="n"/>
       <c r="J40" s="62" t="n"/>
@@ -24476,24 +24367,21 @@
       <c r="R40" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z40" t="s"/>
-    </row>
-    <row r="41" spans="1:26">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B41" s="69" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D41" s="62" t="n"/>
       <c r="E41" s="62" t="n"/>
       <c r="F41" s="62" t="n"/>
-      <c r="G41" s="62" t="s">
-        <v>589</v>
-      </c>
+      <c r="G41" s="62" t="s"/>
       <c r="H41" s="62" t="n"/>
       <c r="I41" s="62" t="n"/>
       <c r="J41" s="62" t="n"/>
@@ -24509,24 +24397,21 @@
       <c r="R41" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z41" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="42" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="42" spans="1:18">
       <c r="A42" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="D42" s="62" t="n"/>
       <c r="E42" s="62" t="n"/>
       <c r="F42" s="62" t="n"/>
-      <c r="G42" s="62" t="s">
-        <v>589</v>
-      </c>
+      <c r="G42" s="62" t="s"/>
       <c r="H42" s="62" t="n"/>
       <c r="I42" s="62" t="n"/>
       <c r="J42" s="62" t="n"/>
@@ -24542,24 +24427,21 @@
       <c r="R42" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z42" t="s"/>
-    </row>
-    <row r="43" spans="1:26">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D43" s="62" t="n"/>
       <c r="E43" s="62" t="n"/>
       <c r="F43" s="62" t="n"/>
-      <c r="G43" s="62" t="s">
-        <v>130</v>
-      </c>
+      <c r="G43" s="62" t="s"/>
       <c r="H43" s="62" t="n"/>
       <c r="I43" s="62" t="n"/>
       <c r="J43" s="62" t="n"/>
@@ -24575,23 +24457,22 @@
       <c r="R43" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z43" t="s"/>
-    </row>
-    <row r="44" spans="1:26">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="D44" s="62" t="n"/>
       <c r="E44" s="62" t="n"/>
       <c r="F44" s="62" t="n"/>
       <c r="G44" s="62" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H44" s="62" t="n"/>
       <c r="I44" s="62" t="n"/>
@@ -24608,22 +24489,21 @@
       <c r="R44" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z44" t="s"/>
-    </row>
-    <row r="45" spans="1:26">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="64" t="s">
         <v>503</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C45" s="72" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D45" s="62" t="n"/>
       <c r="E45" s="62" t="n"/>
       <c r="F45" s="62" t="n"/>
-      <c r="G45" s="62" t="n"/>
+      <c r="G45" s="62" t="s"/>
       <c r="H45" s="62" t="n"/>
       <c r="I45" s="62" t="n"/>
       <c r="J45" s="62" t="n"/>
@@ -24639,9 +24519,8 @@
       <c r="R45" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z45" t="s"/>
-    </row>
-    <row customHeight="1" ht="15.5" r="46" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15.5" r="46" spans="1:18">
       <c r="A46" s="52" t="n"/>
       <c r="B46" s="52" t="s">
         <v>142</v>
@@ -24652,7 +24531,7 @@
       <c r="D46" s="52" t="n"/>
       <c r="E46" s="52" t="n"/>
       <c r="F46" s="52" t="n"/>
-      <c r="G46" s="52" t="n"/>
+      <c r="G46" s="52" t="s"/>
       <c r="H46" s="52" t="n"/>
       <c r="I46" s="52" t="n"/>
       <c r="J46" s="52" t="n"/>
@@ -24664,9 +24543,8 @@
       <c r="P46" s="52" t="n"/>
       <c r="Q46" s="52" t="n"/>
       <c r="R46" s="52" t="n"/>
-      <c r="Z46" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="47" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="47" spans="1:18">
       <c r="A47" s="62" t="s">
         <v>120</v>
       </c>
@@ -24684,7 +24562,7 @@
       </c>
       <c r="F47" s="62" t="n"/>
       <c r="G47" s="62" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H47" s="62" t="n"/>
       <c r="I47" s="62" t="n"/>
@@ -24715,9 +24593,8 @@
       <c r="R47" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z47" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="48" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="48" spans="1:18">
       <c r="A48" s="62" t="s">
         <v>120</v>
       </c>
@@ -24735,7 +24612,7 @@
       </c>
       <c r="F48" s="62" t="n"/>
       <c r="G48" s="62" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H48" s="62" t="n"/>
       <c r="I48" s="62" t="n"/>
@@ -24766,9 +24643,8 @@
       <c r="R48" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z48" t="s"/>
-    </row>
-    <row r="49" spans="1:26">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="62" t="s">
         <v>120</v>
       </c>
@@ -24786,7 +24662,7 @@
       </c>
       <c r="F49" s="62" t="n"/>
       <c r="G49" s="62" t="s">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="H49" s="62" t="n"/>
       <c r="I49" s="62" t="n"/>
@@ -24817,9 +24693,8 @@
       <c r="R49" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z49" t="s"/>
-    </row>
-    <row r="50" spans="1:26">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="62" t="s">
         <v>120</v>
       </c>
@@ -24837,7 +24712,7 @@
       </c>
       <c r="F50" s="78" t="n"/>
       <c r="G50" s="78" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H50" s="78" t="n"/>
       <c r="I50" s="78" t="n"/>
@@ -24868,9 +24743,8 @@
       <c r="R50" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z50" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="51" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="51" spans="1:18">
       <c r="A51" s="62" t="s">
         <v>120</v>
       </c>
@@ -24919,9 +24793,8 @@
       <c r="R51" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z51" t="s"/>
-    </row>
-    <row r="52" spans="1:26">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="62" t="s">
         <v>120</v>
       </c>
@@ -24939,7 +24812,7 @@
       </c>
       <c r="F52" s="62" t="n"/>
       <c r="G52" s="62" t="s">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="H52" s="62" t="n"/>
       <c r="I52" s="62" t="n"/>
@@ -24970,9 +24843,8 @@
       <c r="R52" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z52" t="s"/>
-    </row>
-    <row customHeight="1" ht="72.5" r="53" spans="1:26">
+    </row>
+    <row customHeight="1" ht="72.5" r="53" spans="1:18">
       <c r="A53" s="62" t="s">
         <v>120</v>
       </c>
@@ -24990,7 +24862,7 @@
       </c>
       <c r="F53" s="62" t="n"/>
       <c r="G53" s="62" t="s">
-        <v>609</v>
+        <v>149</v>
       </c>
       <c r="H53" s="62" t="n"/>
       <c r="I53" s="62" t="n"/>
@@ -25021,9 +24893,8 @@
       <c r="R53" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z53" t="s"/>
-    </row>
-    <row r="54" spans="1:26">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="62" t="s">
         <v>120</v>
       </c>
@@ -25041,7 +24912,7 @@
       </c>
       <c r="F54" s="62" t="n"/>
       <c r="G54" s="62" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H54" s="62" t="n"/>
       <c r="I54" s="62" t="n"/>
@@ -25072,9 +24943,8 @@
       <c r="R54" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z54" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="55" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="55" spans="1:18">
       <c r="A55" s="62" t="s">
         <v>120</v>
       </c>
@@ -25123,9 +24993,8 @@
       <c r="R55" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z55" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="56" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="56" spans="1:18">
       <c r="A56" s="62" t="s">
         <v>120</v>
       </c>
@@ -25143,7 +25012,7 @@
       </c>
       <c r="F56" s="78" t="n"/>
       <c r="G56" s="78" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H56" s="78" t="n"/>
       <c r="I56" s="78" t="n"/>
@@ -25174,9 +25043,8 @@
       <c r="R56" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z56" t="s"/>
-    </row>
-    <row r="57" spans="1:26">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="62" t="s">
         <v>120</v>
       </c>
@@ -25194,7 +25062,7 @@
       </c>
       <c r="F57" s="62" t="n"/>
       <c r="G57" s="62" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="H57" s="62" t="n"/>
       <c r="I57" s="62" t="n"/>
@@ -25225,9 +25093,8 @@
       <c r="R57" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z57" t="s"/>
-    </row>
-    <row r="58" spans="1:26">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="62" t="s">
         <v>120</v>
       </c>
@@ -25276,9 +25143,8 @@
       <c r="R58" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z58" t="s"/>
-    </row>
-    <row customHeight="1" ht="116" r="59" spans="1:26">
+    </row>
+    <row customHeight="1" ht="116" r="59" spans="1:18">
       <c r="A59" s="62" t="s">
         <v>120</v>
       </c>
@@ -25296,7 +25162,7 @@
       </c>
       <c r="F59" s="62" t="n"/>
       <c r="G59" s="62" t="s">
-        <v>612</v>
+        <v>149</v>
       </c>
       <c r="H59" s="62" t="n"/>
       <c r="I59" s="62" t="n"/>
@@ -25327,9 +25193,8 @@
       <c r="R59" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z59" t="s"/>
-    </row>
-    <row customHeight="1" ht="43.5" r="60" spans="1:26">
+    </row>
+    <row customHeight="1" ht="43.5" r="60" spans="1:18">
       <c r="A60" s="62" t="s">
         <v>120</v>
       </c>
@@ -25347,7 +25212,7 @@
       </c>
       <c r="F60" s="62" t="n"/>
       <c r="G60" s="62" t="s">
-        <v>149</v>
+        <v>602</v>
       </c>
       <c r="H60" s="62" t="n"/>
       <c r="I60" s="62" t="n"/>
@@ -25378,9 +25243,8 @@
       <c r="R60" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z60" t="s"/>
-    </row>
-    <row r="61" spans="1:26">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="62" t="s">
         <v>120</v>
       </c>
@@ -25398,7 +25262,7 @@
       </c>
       <c r="F61" s="62" t="n"/>
       <c r="G61" s="62" t="s">
-        <v>613</v>
+        <v>149</v>
       </c>
       <c r="H61" s="62" t="n"/>
       <c r="I61" s="62" t="n"/>
@@ -25429,9 +25293,8 @@
       <c r="R61" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z61" t="s"/>
-    </row>
-    <row r="62" spans="1:26">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="62" t="s">
         <v>120</v>
       </c>
@@ -25449,7 +25312,7 @@
       </c>
       <c r="F62" s="62" t="n"/>
       <c r="G62" s="62" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="H62" s="62" t="n"/>
       <c r="I62" s="62" t="n"/>
@@ -25480,9 +25343,8 @@
       <c r="R62" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z62" t="s"/>
-    </row>
-    <row r="63" spans="1:26">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="62" t="s">
         <v>120</v>
       </c>
@@ -25500,7 +25362,7 @@
       </c>
       <c r="F63" s="62" t="n"/>
       <c r="G63" s="62" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H63" s="62" t="n"/>
       <c r="I63" s="62" t="n"/>
@@ -25531,9 +25393,8 @@
       <c r="R63" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z63" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="64" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="64" spans="1:18">
       <c r="A64" s="62" t="s">
         <v>120</v>
       </c>
@@ -25551,7 +25412,7 @@
       </c>
       <c r="F64" s="62" t="n"/>
       <c r="G64" s="62" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H64" s="62" t="n"/>
       <c r="I64" s="62" t="n"/>
@@ -25582,9 +25443,8 @@
       <c r="R64" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z64" t="s"/>
-    </row>
-    <row r="65" spans="1:26">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="62" t="s">
         <v>120</v>
       </c>
@@ -25602,7 +25462,7 @@
       </c>
       <c r="F65" s="62" t="n"/>
       <c r="G65" s="62" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="H65" s="62" t="n"/>
       <c r="I65" s="62" t="n"/>
@@ -25633,9 +25493,8 @@
       <c r="R65" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z65" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="66" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="66" spans="1:18">
       <c r="A66" s="62" t="s">
         <v>120</v>
       </c>
@@ -25653,7 +25512,7 @@
       </c>
       <c r="F66" s="62" t="n"/>
       <c r="G66" s="62" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H66" s="62" t="n"/>
       <c r="I66" s="62" t="n"/>
@@ -25684,9 +25543,8 @@
       <c r="R66" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z66" t="s"/>
-    </row>
-    <row r="67" spans="1:26">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="62" t="s">
         <v>120</v>
       </c>
@@ -25704,7 +25562,7 @@
       </c>
       <c r="F67" s="62" t="n"/>
       <c r="G67" s="62" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="H67" s="62" t="n"/>
       <c r="I67" s="62" t="n"/>
@@ -25735,9 +25593,8 @@
       <c r="R67" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z67" t="s"/>
-    </row>
-    <row r="68" spans="1:26">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="62" t="s">
         <v>120</v>
       </c>
@@ -25755,7 +25612,7 @@
       </c>
       <c r="F68" s="62" t="n"/>
       <c r="G68" s="62" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H68" s="62" t="n"/>
       <c r="I68" s="62" t="n"/>
@@ -25786,9 +25643,8 @@
       <c r="R68" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z68" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="69" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="69" spans="1:18">
       <c r="A69" s="62" t="s">
         <v>120</v>
       </c>
@@ -25805,7 +25661,7 @@
         <v>7095</v>
       </c>
       <c r="F69" s="62" t="n"/>
-      <c r="G69" s="62" t="n"/>
+      <c r="G69" s="62" t="s"/>
       <c r="H69" s="62" t="n"/>
       <c r="I69" s="62" t="n"/>
       <c r="J69" s="74" t="s">
@@ -25835,9 +25691,8 @@
       <c r="R69" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z69" t="s"/>
-    </row>
-    <row r="70" spans="1:26">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="62" t="s">
         <v>120</v>
       </c>
@@ -25854,9 +25709,7 @@
         <v>6817</v>
       </c>
       <c r="F70" s="62" t="n"/>
-      <c r="G70" s="62" t="s">
-        <v>149</v>
-      </c>
+      <c r="G70" s="62" t="s"/>
       <c r="H70" s="62" t="n"/>
       <c r="I70" s="62" t="n"/>
       <c r="J70" s="74" t="s">
@@ -25886,9 +25739,8 @@
       <c r="R70" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z70" t="s"/>
-    </row>
-    <row r="71" spans="1:26">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="62" t="s">
         <v>120</v>
       </c>
@@ -25905,9 +25757,7 @@
         <v>6818</v>
       </c>
       <c r="F71" s="62" t="n"/>
-      <c r="G71" s="62" t="s">
-        <v>149</v>
-      </c>
+      <c r="G71" s="62" t="s"/>
       <c r="H71" s="62" t="n"/>
       <c r="I71" s="62" t="n"/>
       <c r="J71" s="74" t="s">
@@ -25937,9 +25787,8 @@
       <c r="R71" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z71" t="s"/>
-    </row>
-    <row r="72" spans="1:26">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="62" t="s">
         <v>120</v>
       </c>
@@ -25957,7 +25806,7 @@
       </c>
       <c r="F72" s="62" t="n"/>
       <c r="G72" s="62" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="H72" s="62" t="n"/>
       <c r="I72" s="62" t="n"/>
@@ -25988,9 +25837,8 @@
       <c r="R72" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z72" t="s"/>
-    </row>
-    <row r="73" spans="1:26">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="62" t="s">
         <v>120</v>
       </c>
@@ -26039,9 +25887,8 @@
       <c r="R73" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z73" t="s"/>
-    </row>
-    <row r="74" spans="1:26">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="62" t="s">
         <v>120</v>
       </c>
@@ -26090,9 +25937,8 @@
       <c r="R74" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z74" t="s"/>
-    </row>
-    <row r="75" spans="1:26">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="62" t="s">
         <v>120</v>
       </c>
@@ -26141,9 +25987,8 @@
       <c r="R75" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z75" t="s"/>
-    </row>
-    <row customHeight="1" ht="29.5" r="76" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29.5" r="76" spans="1:18">
       <c r="A76" s="62" t="s">
         <v>120</v>
       </c>
@@ -26161,7 +26006,7 @@
       </c>
       <c r="F76" s="62" t="n"/>
       <c r="G76" s="62" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="H76" s="62" t="n"/>
       <c r="I76" s="62" t="n"/>
@@ -26192,9 +26037,8 @@
       <c r="R76" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z76" t="s"/>
-    </row>
-    <row r="77" spans="1:26">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="62" t="s">
         <v>120</v>
       </c>
@@ -26212,7 +26056,7 @@
       </c>
       <c r="F77" s="62" t="n"/>
       <c r="G77" s="62" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="H77" s="62" t="n"/>
       <c r="I77" s="62" t="n"/>
@@ -26243,9 +26087,8 @@
       <c r="R77" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z77" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="78" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="78" spans="1:18">
       <c r="A78" s="62" t="s">
         <v>120</v>
       </c>
@@ -26263,7 +26106,7 @@
       </c>
       <c r="F78" s="62" t="n"/>
       <c r="G78" s="62" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H78" s="62" t="n"/>
       <c r="I78" s="62" t="n"/>
@@ -26294,9 +26137,8 @@
       <c r="R78" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z78" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="79" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="79" spans="1:18">
       <c r="A79" s="62" t="s">
         <v>120</v>
       </c>
@@ -26314,7 +26156,7 @@
       </c>
       <c r="F79" s="82" t="n"/>
       <c r="G79" s="82" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="H79" s="82" t="n"/>
       <c r="I79" s="82" t="n"/>
@@ -26345,9 +26187,8 @@
       <c r="R79" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z79" t="s"/>
-    </row>
-    <row r="80" spans="1:26">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="62" t="s">
         <v>120</v>
       </c>
@@ -26365,7 +26206,7 @@
       </c>
       <c r="F80" s="78" t="n"/>
       <c r="G80" s="78" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="H80" s="78" t="n"/>
       <c r="I80" s="78" t="n"/>
@@ -26396,9 +26237,8 @@
       <c r="R80" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z80" t="s"/>
-    </row>
-    <row r="81" spans="1:26">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="62" t="s">
         <v>120</v>
       </c>
@@ -26447,9 +26287,8 @@
       <c r="R81" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z81" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="82" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="82" spans="1:18">
       <c r="A82" s="62" t="s">
         <v>120</v>
       </c>
@@ -26467,7 +26306,7 @@
       </c>
       <c r="F82" s="78" t="n"/>
       <c r="G82" s="78" t="s">
-        <v>626</v>
+        <v>149</v>
       </c>
       <c r="H82" s="78" t="n"/>
       <c r="I82" s="78" t="n"/>
@@ -26498,9 +26337,8 @@
       <c r="R82" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z82" t="s"/>
-    </row>
-    <row r="83" spans="1:26">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="62" t="s">
         <v>120</v>
       </c>
@@ -26549,9 +26387,8 @@
       <c r="R83" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z83" t="s"/>
-    </row>
-    <row r="84" spans="1:26">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="62" t="s">
         <v>120</v>
       </c>
@@ -26569,7 +26406,7 @@
       </c>
       <c r="F84" s="62" t="n"/>
       <c r="G84" s="62" t="s">
-        <v>627</v>
+        <v>558</v>
       </c>
       <c r="H84" s="62" t="n"/>
       <c r="I84" s="62" t="n"/>
@@ -26600,9 +26437,8 @@
       <c r="R84" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z84" t="s"/>
-    </row>
-    <row r="85" spans="1:26">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="62" t="s">
         <v>120</v>
       </c>
@@ -26620,7 +26456,7 @@
       </c>
       <c r="F85" s="62" t="n"/>
       <c r="G85" s="62" t="s">
-        <v>444</v>
+        <v>149</v>
       </c>
       <c r="H85" s="62" t="n"/>
       <c r="I85" s="62" t="n"/>
@@ -26651,9 +26487,8 @@
       <c r="R85" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z85" t="s"/>
-    </row>
-    <row r="86" spans="1:26">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="62" t="s">
         <v>120</v>
       </c>
@@ -26671,7 +26506,7 @@
       </c>
       <c r="F86" s="62" t="n"/>
       <c r="G86" s="62" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="H86" s="62" t="n"/>
       <c r="I86" s="62" t="n"/>
@@ -26702,9 +26537,8 @@
       <c r="R86" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z86" t="s"/>
-    </row>
-    <row r="87" spans="1:26">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="62" t="s">
         <v>120</v>
       </c>
@@ -26722,7 +26556,7 @@
       </c>
       <c r="F87" s="62" t="n"/>
       <c r="G87" s="62" t="s">
-        <v>628</v>
+        <v>558</v>
       </c>
       <c r="H87" s="62" t="n"/>
       <c r="I87" s="62" t="n"/>
@@ -26753,9 +26587,8 @@
       <c r="R87" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z87" t="s"/>
-    </row>
-    <row r="88" spans="1:26">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="62" t="s">
         <v>120</v>
       </c>
@@ -26773,7 +26606,7 @@
       </c>
       <c r="F88" s="78" t="n"/>
       <c r="G88" s="78" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H88" s="78" t="n"/>
       <c r="I88" s="78" t="n"/>
@@ -26804,9 +26637,8 @@
       <c r="R88" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z88" t="s"/>
-    </row>
-    <row r="89" spans="1:26">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="62" t="s">
         <v>120</v>
       </c>
@@ -26824,7 +26656,7 @@
       </c>
       <c r="F89" s="78" t="n"/>
       <c r="G89" s="78" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H89" s="78" t="n"/>
       <c r="I89" s="78" t="n"/>
@@ -26855,9 +26687,8 @@
       <c r="R89" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z89" t="s"/>
-    </row>
-    <row r="90" spans="1:26">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="62" t="s">
         <v>120</v>
       </c>
@@ -26875,7 +26706,7 @@
       </c>
       <c r="F90" s="78" t="n"/>
       <c r="G90" s="78" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H90" s="78" t="n"/>
       <c r="I90" s="78" t="n"/>
@@ -26906,9 +26737,8 @@
       <c r="R90" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z90" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="91" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="91" spans="1:18">
       <c r="A91" s="62" t="s">
         <v>120</v>
       </c>
@@ -26926,7 +26756,7 @@
       </c>
       <c r="F91" s="78" t="n"/>
       <c r="G91" s="78" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H91" s="78" t="n"/>
       <c r="I91" s="78" t="n"/>
@@ -26957,9 +26787,8 @@
       <c r="R91" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z91" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="92" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="92" spans="1:18">
       <c r="A92" s="62" t="s">
         <v>120</v>
       </c>
@@ -26977,7 +26806,7 @@
       </c>
       <c r="F92" s="78" t="n"/>
       <c r="G92" s="78" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="H92" s="78" t="n"/>
       <c r="I92" s="78" t="n"/>
@@ -27008,9 +26837,8 @@
       <c r="R92" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z92" t="s"/>
-    </row>
-    <row r="93" spans="1:26">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="62" t="s">
         <v>120</v>
       </c>
@@ -27059,9 +26887,8 @@
       <c r="R93" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z93" t="s"/>
-    </row>
-    <row r="94" spans="1:26">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="62" t="s">
         <v>120</v>
       </c>
@@ -27079,7 +26906,7 @@
       </c>
       <c r="F94" s="78" t="n"/>
       <c r="G94" s="78" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="H94" s="78" t="n"/>
       <c r="I94" s="78" t="n"/>
@@ -27110,9 +26937,8 @@
       <c r="R94" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z94" t="s"/>
-    </row>
-    <row r="95" spans="1:26">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="62" t="s">
         <v>120</v>
       </c>
@@ -27130,7 +26956,7 @@
       </c>
       <c r="F95" s="62" t="n"/>
       <c r="G95" s="62" t="s">
-        <v>149</v>
+        <v>558</v>
       </c>
       <c r="H95" s="62" t="n"/>
       <c r="I95" s="62" t="n"/>
@@ -27161,9 +26987,8 @@
       <c r="R95" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z95" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="96" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="96" spans="1:18">
       <c r="A96" s="62" t="s">
         <v>120</v>
       </c>
@@ -27181,7 +27006,7 @@
       </c>
       <c r="F96" s="62" t="n"/>
       <c r="G96" s="62" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="H96" s="62" t="n"/>
       <c r="I96" s="62" t="n"/>
@@ -27212,9 +27037,8 @@
       <c r="R96" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z96" t="s"/>
-    </row>
-    <row customHeight="1" ht="16" r="97" spans="1:26">
+    </row>
+    <row customHeight="1" ht="16" r="97" spans="1:18">
       <c r="A97" s="62" t="s">
         <v>120</v>
       </c>
@@ -27232,7 +27056,7 @@
       </c>
       <c r="F97" s="62" t="n"/>
       <c r="G97" s="62" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="H97" s="62" t="n"/>
       <c r="I97" s="62" t="n"/>
@@ -27263,9 +27087,8 @@
       <c r="R97" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z97" t="s"/>
-    </row>
-    <row r="98" spans="1:26">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="62" t="s">
         <v>120</v>
       </c>
@@ -27283,7 +27106,7 @@
       </c>
       <c r="F98" s="62" t="n"/>
       <c r="G98" s="62" t="s">
-        <v>633</v>
+        <v>149</v>
       </c>
       <c r="H98" s="62" t="n"/>
       <c r="I98" s="62" t="n"/>
@@ -27314,9 +27137,8 @@
       <c r="R98" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z98" t="s"/>
-    </row>
-    <row r="99" spans="1:26">
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="62" t="s">
         <v>120</v>
       </c>
@@ -27334,7 +27156,7 @@
       </c>
       <c r="F99" s="62" t="n"/>
       <c r="G99" s="62" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="H99" s="62" t="n"/>
       <c r="I99" s="62" t="n"/>
@@ -27365,9 +27187,8 @@
       <c r="R99" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z99" t="s"/>
-    </row>
-    <row r="100" spans="1:26">
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="62" t="s">
         <v>120</v>
       </c>
@@ -27385,7 +27206,7 @@
       </c>
       <c r="F100" s="62" t="n"/>
       <c r="G100" s="62" t="s">
-        <v>617</v>
+        <v>149</v>
       </c>
       <c r="H100" s="62" t="n"/>
       <c r="I100" s="62" t="n"/>
@@ -27416,9 +27237,8 @@
       <c r="R100" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z100" t="s"/>
-    </row>
-    <row r="101" spans="1:26">
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="62" t="s">
         <v>120</v>
       </c>
@@ -27467,9 +27287,8 @@
       <c r="R101" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z101" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="102" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="102" spans="1:18">
       <c r="A102" s="62" t="s">
         <v>120</v>
       </c>
@@ -27487,7 +27306,7 @@
       </c>
       <c r="F102" s="78" t="n"/>
       <c r="G102" s="78" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="H102" s="78" t="n"/>
       <c r="I102" s="78" t="n"/>
@@ -27518,9 +27337,8 @@
       <c r="R102" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z102" t="s"/>
-    </row>
-    <row r="103" spans="1:26">
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="61" t="s">
         <v>120</v>
       </c>
@@ -27538,7 +27356,7 @@
       </c>
       <c r="F103" s="62" t="n"/>
       <c r="G103" s="62" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="H103" s="62" t="n"/>
       <c r="I103" s="62" t="n"/>
@@ -27569,9 +27387,8 @@
       <c r="R103" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z103" t="s"/>
-    </row>
-    <row r="104" spans="1:26">
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="62" t="s">
         <v>120</v>
       </c>
@@ -27620,9 +27437,8 @@
       <c r="R104" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z104" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="105" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="105" spans="1:18">
       <c r="A105" s="62" t="s">
         <v>120</v>
       </c>
@@ -27640,7 +27456,7 @@
       </c>
       <c r="F105" s="78" t="n"/>
       <c r="G105" s="78" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="H105" s="78" t="n"/>
       <c r="I105" s="78" t="n"/>
@@ -27671,9 +27487,8 @@
       <c r="R105" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z105" t="s"/>
-    </row>
-    <row r="106" spans="1:26">
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="62" t="s">
         <v>120</v>
       </c>
@@ -27691,7 +27506,7 @@
       </c>
       <c r="F106" s="62" t="n"/>
       <c r="G106" s="62" t="s">
-        <v>638</v>
+        <v>149</v>
       </c>
       <c r="H106" s="62" t="n"/>
       <c r="I106" s="62" t="n"/>
@@ -27722,9 +27537,8 @@
       <c r="R106" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z106" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="107" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="107" spans="1:18">
       <c r="A107" s="62" t="s">
         <v>120</v>
       </c>
@@ -27742,7 +27556,7 @@
       </c>
       <c r="F107" s="62" t="n"/>
       <c r="G107" s="62" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
       <c r="H107" s="62" t="n"/>
       <c r="I107" s="62" t="n"/>
@@ -27773,9 +27587,8 @@
       <c r="R107" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z107" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="108" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="108" spans="1:18">
       <c r="A108" s="62" t="s">
         <v>120</v>
       </c>
@@ -27793,7 +27606,7 @@
       </c>
       <c r="F108" s="62" t="n"/>
       <c r="G108" s="62" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="H108" s="62" t="n"/>
       <c r="I108" s="62" t="n"/>
@@ -27824,9 +27637,8 @@
       <c r="R108" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z108" t="s"/>
-    </row>
-    <row r="109" spans="1:26">
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="62" t="s">
         <v>120</v>
       </c>
@@ -27844,7 +27656,7 @@
       </c>
       <c r="F109" s="62" t="n"/>
       <c r="G109" s="62" t="s">
-        <v>641</v>
+        <v>558</v>
       </c>
       <c r="H109" s="62" t="n"/>
       <c r="I109" s="62" t="n"/>
@@ -27875,9 +27687,8 @@
       <c r="R109" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z109" t="s"/>
-    </row>
-    <row r="110" spans="1:26">
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="62" t="s">
         <v>120</v>
       </c>
@@ -27895,7 +27706,7 @@
       </c>
       <c r="F110" s="62" t="n"/>
       <c r="G110" s="62" t="s">
-        <v>642</v>
+        <v>149</v>
       </c>
       <c r="H110" s="62" t="n"/>
       <c r="I110" s="62" t="n"/>
@@ -27926,9 +27737,8 @@
       <c r="R110" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z110" t="s"/>
-    </row>
-    <row r="111" spans="1:26">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="62" t="s">
         <v>120</v>
       </c>
@@ -27946,7 +27756,7 @@
       </c>
       <c r="F111" s="62" t="n"/>
       <c r="G111" s="62" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="H111" s="62" t="n"/>
       <c r="I111" s="62" t="n"/>
@@ -27977,9 +27787,8 @@
       <c r="R111" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z111" t="s"/>
-    </row>
-    <row customHeight="1" ht="72.5" r="112" spans="1:26">
+    </row>
+    <row customHeight="1" ht="72.5" r="112" spans="1:18">
       <c r="A112" s="62" t="s">
         <v>120</v>
       </c>
@@ -27997,7 +27806,7 @@
       </c>
       <c r="F112" s="64" t="n"/>
       <c r="G112" s="64" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="H112" s="64" t="n"/>
       <c r="I112" s="64" t="n"/>
@@ -28028,9 +27837,8 @@
       <c r="R112" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z112" t="s"/>
-    </row>
-    <row r="113" spans="1:26">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="62" t="s">
         <v>120</v>
       </c>
@@ -28048,7 +27856,7 @@
       </c>
       <c r="F113" s="62" t="n"/>
       <c r="G113" s="62" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H113" s="62" t="n"/>
       <c r="I113" s="62" t="n"/>
@@ -28079,9 +27887,8 @@
       <c r="R113" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z113" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="114" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="114" spans="1:18">
       <c r="A114" s="62" t="s">
         <v>120</v>
       </c>
@@ -28099,7 +27906,7 @@
       </c>
       <c r="F114" s="62" t="n"/>
       <c r="G114" s="62" t="s">
-        <v>646</v>
+        <v>149</v>
       </c>
       <c r="H114" s="62" t="n"/>
       <c r="I114" s="62" t="n"/>
@@ -28130,9 +27937,8 @@
       <c r="R114" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z114" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="115" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="115" spans="1:18">
       <c r="A115" s="62" t="s">
         <v>120</v>
       </c>
@@ -28150,7 +27956,7 @@
       </c>
       <c r="F115" s="62" t="n"/>
       <c r="G115" s="62" t="s">
-        <v>647</v>
+        <v>558</v>
       </c>
       <c r="H115" s="62" t="n"/>
       <c r="I115" s="62" t="n"/>
@@ -28181,9 +27987,8 @@
       <c r="R115" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z115" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="116" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="116" spans="1:18">
       <c r="A116" s="62" t="s">
         <v>120</v>
       </c>
@@ -28201,7 +28006,7 @@
       </c>
       <c r="F116" s="62" t="n"/>
       <c r="G116" s="62" t="s">
-        <v>647</v>
+        <v>558</v>
       </c>
       <c r="H116" s="62" t="n"/>
       <c r="I116" s="62" t="n"/>
@@ -28232,9 +28037,8 @@
       <c r="R116" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z116" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="117" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="117" spans="1:18">
       <c r="A117" s="62" t="s">
         <v>120</v>
       </c>
@@ -28252,7 +28056,7 @@
       </c>
       <c r="F117" s="62" t="n"/>
       <c r="G117" s="62" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="H117" s="62" t="n"/>
       <c r="I117" s="62" t="n"/>
@@ -28283,9 +28087,8 @@
       <c r="R117" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z117" t="s"/>
-    </row>
-    <row customHeight="1" ht="29" r="118" spans="1:26">
+    </row>
+    <row customHeight="1" ht="29" r="118" spans="1:18">
       <c r="A118" s="62" t="s">
         <v>120</v>
       </c>
@@ -28303,7 +28106,7 @@
       </c>
       <c r="F118" s="62" t="n"/>
       <c r="G118" s="62" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="H118" s="62" t="n"/>
       <c r="I118" s="62" t="n"/>
@@ -28334,9 +28137,8 @@
       <c r="R118" s="86" t="s">
         <v>507</v>
       </c>
-      <c r="Z118" t="s"/>
-    </row>
-    <row r="119" spans="1:26">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="62" t="s">
         <v>120</v>
       </c>
@@ -28354,7 +28156,7 @@
       </c>
       <c r="F119" s="62" t="n"/>
       <c r="G119" s="62" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="H119" s="62" t="n"/>
       <c r="I119" s="62" t="n"/>
@@ -28385,9 +28187,8 @@
       <c r="R119" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z119" t="s"/>
-    </row>
-    <row r="120" spans="1:26">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="62" t="s">
         <v>120</v>
       </c>
@@ -28405,7 +28206,7 @@
       </c>
       <c r="F120" s="62" t="n"/>
       <c r="G120" s="62" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="H120" s="62" t="n"/>
       <c r="I120" s="62" t="n"/>
@@ -28436,9 +28237,8 @@
       <c r="R120" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z120" t="s"/>
-    </row>
-    <row r="121" spans="1:26">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="62" t="s">
         <v>120</v>
       </c>
@@ -28456,7 +28256,7 @@
       </c>
       <c r="F121" s="62" t="n"/>
       <c r="G121" s="62" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="H121" s="62" t="n"/>
       <c r="I121" s="62" t="n"/>
@@ -28487,9 +28287,8 @@
       <c r="R121" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z121" t="s"/>
-    </row>
-    <row r="122" spans="1:26">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="62" t="s">
         <v>120</v>
       </c>
@@ -28507,7 +28306,7 @@
       </c>
       <c r="F122" s="62" t="n"/>
       <c r="G122" s="62" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="H122" s="62" t="n"/>
       <c r="I122" s="62" t="n"/>
@@ -28538,9 +28337,8 @@
       <c r="R122" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z122" t="s"/>
-    </row>
-    <row r="123" spans="1:26">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="62" t="s">
         <v>120</v>
       </c>
@@ -28558,7 +28356,7 @@
       </c>
       <c r="F123" s="62" t="n"/>
       <c r="G123" s="62" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="H123" s="62" t="n"/>
       <c r="I123" s="62" t="n"/>
@@ -28589,9 +28387,8 @@
       <c r="R123" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z123" t="s"/>
-    </row>
-    <row r="124" spans="1:26">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="62" t="s">
         <v>120</v>
       </c>
@@ -28609,7 +28406,7 @@
       </c>
       <c r="F124" s="62" t="n"/>
       <c r="G124" s="62" t="s">
-        <v>653</v>
+        <v>149</v>
       </c>
       <c r="H124" s="62" t="n"/>
       <c r="I124" s="62" t="n"/>
@@ -28640,9 +28437,8 @@
       <c r="R124" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z124" t="s"/>
-    </row>
-    <row customHeight="1" ht="15" r="125" spans="1:26">
+    </row>
+    <row customHeight="1" ht="15" r="125" spans="1:18">
       <c r="A125" s="62" t="s">
         <v>120</v>
       </c>
@@ -28660,7 +28456,7 @@
       </c>
       <c r="F125" s="62" t="n"/>
       <c r="G125" s="62" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="H125" s="62" t="n"/>
       <c r="I125" s="62" t="n"/>
@@ -28691,9 +28487,8 @@
       <c r="R125" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z125" t="s"/>
-    </row>
-    <row r="126" spans="1:26">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="62" t="s">
         <v>120</v>
       </c>
@@ -28742,9 +28537,8 @@
       <c r="R126" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z126" t="s"/>
-    </row>
-    <row r="127" spans="1:26">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="62" t="s">
         <v>120</v>
       </c>
@@ -28793,9 +28587,8 @@
       <c r="R127" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z127" t="s"/>
-    </row>
-    <row r="128" spans="1:26">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="62" t="s">
         <v>120</v>
       </c>
@@ -28813,7 +28606,7 @@
       </c>
       <c r="F128" s="62" t="n"/>
       <c r="G128" s="62" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H128" s="62" t="n"/>
       <c r="I128" s="62" t="n"/>
@@ -28844,9 +28637,8 @@
       <c r="R128" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z128" t="s"/>
-    </row>
-    <row r="129" spans="1:26">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="62" t="s">
         <v>120</v>
       </c>
@@ -28864,7 +28656,7 @@
       </c>
       <c r="F129" s="62" t="n"/>
       <c r="G129" s="62" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="H129" s="62" t="n"/>
       <c r="I129" s="62" t="n"/>
@@ -28895,9 +28687,8 @@
       <c r="R129" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z129" t="s"/>
-    </row>
-    <row r="130" spans="1:26">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="62" t="s">
         <v>120</v>
       </c>
@@ -28915,7 +28706,7 @@
       </c>
       <c r="F130" s="62" t="n"/>
       <c r="G130" s="62" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="H130" s="62" t="n"/>
       <c r="I130" s="62" t="n"/>
@@ -28946,9 +28737,8 @@
       <c r="R130" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z130" t="s"/>
-    </row>
-    <row r="131" spans="1:26">
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="62" t="s">
         <v>120</v>
       </c>
@@ -28966,7 +28756,7 @@
       </c>
       <c r="F131" s="62" t="n"/>
       <c r="G131" s="62" t="s">
-        <v>149</v>
+        <v>626</v>
       </c>
       <c r="H131" s="62" t="n"/>
       <c r="I131" s="62" t="n"/>
@@ -28997,9 +28787,8 @@
       <c r="R131" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z131" t="s"/>
-    </row>
-    <row r="132" spans="1:26">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="62" t="s">
         <v>120</v>
       </c>
@@ -29017,7 +28806,7 @@
       </c>
       <c r="F132" s="62" t="n"/>
       <c r="G132" s="62" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="H132" s="62" t="n"/>
       <c r="I132" s="62" t="n"/>
@@ -29048,9 +28837,8 @@
       <c r="R132" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z132" t="s"/>
-    </row>
-    <row r="133" spans="1:26">
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="62" t="s">
         <v>120</v>
       </c>
@@ -29068,7 +28856,7 @@
       </c>
       <c r="F133" s="62" t="n"/>
       <c r="G133" s="62" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="H133" s="62" t="n"/>
       <c r="I133" s="62" t="n"/>
@@ -29099,9 +28887,8 @@
       <c r="R133" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z133" t="s"/>
-    </row>
-    <row r="134" spans="1:26">
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="87" t="s">
         <v>120</v>
       </c>
@@ -29150,7 +28937,6 @@
       <c r="R134" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="Z134" t="s"/>
     </row>
   </sheetData>
   <autoFilter ref="A46:R133"/>
@@ -29215,16 +29001,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>488</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>660</v>
+        <v>631</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>83</v>
@@ -29233,48 +29019,48 @@
     </row>
     <row customHeight="1" ht="52" r="3" spans="1:7">
       <c r="B3" s="19" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>492</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="F3" s="46" t="n"/>
       <c r="G3" s="46" t="n"/>
     </row>
     <row customHeight="1" ht="208" r="4" spans="1:7">
       <c r="A4" s="202" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="B4" s="203" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="F4" s="48" t="n"/>
       <c r="G4" s="46" t="n"/>
     </row>
     <row customHeight="1" ht="213" r="5" spans="1:7">
       <c r="C5" s="4" t="s">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>84</v>
@@ -29283,29 +29069,29 @@
     </row>
     <row customHeight="1" ht="49.15" r="6" spans="1:7">
       <c r="B6" s="203" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
       <c r="F6" s="46" t="n"/>
       <c r="G6" s="46" t="n"/>
     </row>
     <row customHeight="1" ht="45.65" r="7" spans="1:7">
       <c r="C7" s="19" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
       <c r="F7" s="46" t="n"/>
       <c r="G7" s="46" t="n"/>
